--- a/UML_Dado.xlsx
+++ b/UML_Dado.xlsx
@@ -8,141 +8,149 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emilio\Desktop\Progetto_Dado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD5B761-BF15-4469-9783-A97EFDEA30D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3543B12C-3DCB-4951-99AB-34CA2D1B42C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
-  <si>
-    <t>+-----------------------+</t>
-  </si>
-  <si>
-    <t>|         Gara          |</t>
-  </si>
-  <si>
-    <t>| - rnd: Random         |</t>
-  </si>
-  <si>
-    <t>| - _g1: Giocatore      |</t>
-  </si>
-  <si>
-    <t>| - _g2: Giocatore      |</t>
-  </si>
-  <si>
-    <t>| - numeroRound: int    |</t>
-  </si>
-  <si>
-    <t>| - _roundMax: int      |</t>
-  </si>
-  <si>
-    <t>| - _faccieEstrazioneDado: int |</t>
-  </si>
-  <si>
-    <t>| - _fineGara: bool     |</t>
-  </si>
-  <si>
-    <t>| - _winner: string     |</t>
-  </si>
-  <si>
-    <t>| + Gara(g1: Giocatore, g2: Giocatore, roundMax: int, faccieEstrazioneDado: int) |</t>
-  </si>
-  <si>
-    <t>| + FineGara: bool { get; private set; } |</t>
-  </si>
-  <si>
-    <t>| + NumeroRound: int { get; private set; } |</t>
-  </si>
-  <si>
-    <t>| + RoundMax: int { get; set; } |</t>
-  </si>
-  <si>
-    <t>| + Winner: string { get; private set; } |</t>
-  </si>
-  <si>
-    <t>| + FaccieEstrazioneDado: int { get; set; } |</t>
-  </si>
-  <si>
-    <t>| + Roll(): int |</t>
-  </si>
-  <si>
-    <t>| + Round(val1: int, val2: int): void |</t>
-  </si>
-  <si>
-    <t>| - GameWin(): void |</t>
-  </si>
-  <si>
-    <t>| + ResetGame(): void |</t>
-  </si>
-  <si>
-    <t>|       Giocatore       |</t>
-  </si>
-  <si>
-    <t>| - _nome: string       |</t>
-  </si>
-  <si>
-    <t>| - _nVittorie: int     |</t>
-  </si>
-  <si>
-    <t>| - _dado: Dado          |</t>
-  </si>
-  <si>
-    <t>| + Giocatore(nome: string, dado: Dado) |</t>
-  </si>
-  <si>
-    <t>| + Giocatore()          |</t>
-  </si>
-  <si>
-    <t>| + Dado: Dado { get; set; } |</t>
-  </si>
-  <si>
-    <t>| + Nome: string { get; set; } |</t>
-  </si>
-  <si>
-    <t>| + NVittorie: int { get; set; } |</t>
-  </si>
-  <si>
-    <t>|         Dado          |</t>
-  </si>
-  <si>
-    <t>| - _facciaDado: int    |</t>
-  </si>
-  <si>
-    <t>| + FacciaDado: int { get; set; } |</t>
-  </si>
-  <si>
-    <t>| + Dado()              |</t>
-  </si>
-  <si>
-    <t>| + static operator &gt;(dado1: Dado, dado2: Dado): bool |</t>
-  </si>
-  <si>
-    <t>| + static operator &lt;(dado1: Dado, dado2: Dado): bool |</t>
-  </si>
-  <si>
-    <t>| + static operator ==(dado1: Dado, dado2: Dado): bool |</t>
-  </si>
-  <si>
-    <t>| + static operator !=(dado1: Dado, dado2: Dado): bool |</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>GARA</t>
+  </si>
+  <si>
+    <t>GIOCATORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |- rnd        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">| - _g1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">| - _g2   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |- numeroRound </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |- _roundMax</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |- _faccieEstrazioneDado </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |- _fineGara</t>
+  </si>
+  <si>
+    <t>| - _winner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |- _nome</t>
+  </si>
+  <si>
+    <t>| - _dado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|- _nVittorie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">| + Giocatore()          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">| + Dado: Dado { get; set; } </t>
+  </si>
+  <si>
+    <t xml:space="preserve">| + Nome: string { get; set; } </t>
+  </si>
+  <si>
+    <t xml:space="preserve">| + NVittorie: int { get; set; } </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |+ Gara(g1, g2, roundMax, faccieEstrazioneDado) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |+ FineGara: bool { get; private set; } </t>
+  </si>
+  <si>
+    <t xml:space="preserve">| + NumeroRound: int { get; private set; } </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |+ RoundMax: int { get; set; } </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |+ Winner: string { get; private set; } </t>
+  </si>
+  <si>
+    <t xml:space="preserve">| + FaccieEstrazioneDado: int { get; set; } </t>
+  </si>
+  <si>
+    <t>| + Roll()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |+ Round(val1, val2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |+ ResetGame() </t>
+  </si>
+  <si>
+    <t>| + GameWin()</t>
+  </si>
+  <si>
+    <t>DADO</t>
+  </si>
+  <si>
+    <t>| - _facciaDado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| + FacciaDado: int { get; set; } </t>
+  </si>
+  <si>
+    <t xml:space="preserve">| + Dado()              </t>
+  </si>
+  <si>
+    <t>| + static operator &gt;(dado1, dado2)</t>
+  </si>
+  <si>
+    <t>| + static operator &lt;(dado1, dado2)</t>
+  </si>
+  <si>
+    <t>| + static operator ==(dado1, dado2)</t>
+  </si>
+  <si>
+    <t>| + static operator !=(dado1, dado2)</t>
+  </si>
+  <si>
+    <t>| + Giocatore(nome, dado)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,13 +158,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -171,9 +193,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -456,16 +487,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -473,64 +502,56 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="K3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="Q3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="Q3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="Q4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -544,13 +565,13 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -570,19 +591,17 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="Q6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -596,13 +615,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -621,14 +640,12 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="K8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
       <c r="Q8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -648,13 +665,13 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="Q9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -674,13 +691,13 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="Q10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -700,13 +717,13 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -726,13 +743,13 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="Q12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -741,170 +758,164 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="K13" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="Q13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="K14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>0</v>
-      </c>
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="T15" s="6"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -915,19 +926,31 @@
       <c r="H25" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="Q12:V12"/>
-    <mergeCell ref="Q13:V13"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="Q7:V7"/>
+  <mergeCells count="46">
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:H24"/>
     <mergeCell ref="Q8:V8"/>
     <mergeCell ref="Q9:V9"/>
     <mergeCell ref="K2:N2"/>
@@ -938,32 +961,20 @@
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="K8:N8"/>
     <mergeCell ref="K9:N9"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="Q12:V12"/>
+    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
     <mergeCell ref="K10:N10"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>